--- a/_template/页面对照表.xlsx
+++ b/_template/页面对照表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="关玲" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,14 +442,114 @@
   </si>
   <si>
     <t>找回密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection-dp.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection-sp.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feedback.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-order-show.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单-show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的发票-添加新发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add-add.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址-添加新地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +569,15 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -493,12 +602,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,10 +704,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,7 +738,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -803,21 +913,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -833,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -841,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -849,7 +959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -857,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -865,7 +975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -873,7 +983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -881,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -889,7 +999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -897,7 +1007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -905,7 +1015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -913,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -921,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -929,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -937,7 +1047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -945,7 +1055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -953,7 +1063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -961,7 +1071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -969,7 +1079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -977,7 +1087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -985,7 +1095,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -993,7 +1103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1001,7 +1111,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1009,7 +1119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1017,7 +1127,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1025,7 +1135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1033,7 +1143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1041,7 +1151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1049,7 +1159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1057,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1065,7 +1175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1076,7 +1186,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -1084,7 +1194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -1095,7 +1205,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -1103,12 +1213,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1116,7 +1226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -1124,7 +1234,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -1132,7 +1242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -1140,7 +1250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -1148,7 +1258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -1156,7 +1266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -1164,7 +1274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -1172,7 +1282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -1180,7 +1290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -1188,7 +1298,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -1196,7 +1306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -1204,7 +1314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -1212,7 +1322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -1220,7 +1330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -1228,7 +1338,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>102</v>
       </c>
@@ -1236,7 +1346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -1252,13 +1362,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1266,12 +1487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_template/页面对照表.xlsx
+++ b/_template/页面对照表.xlsx
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
